--- a/Peaks-dataset-article/redes-ensemble-s/Teste05/content/results/metrics_14_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste05/content/results/metrics_14_9.xlsx
@@ -518,606 +518,606 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_24</t>
+          <t>model_14_9_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9984320450639859</v>
+        <v>0.9949775211667861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7748802878301163</v>
+        <v>0.8182054752937892</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9942410559985995</v>
+        <v>0.9622327913684542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9973527120550288</v>
+        <v>0.9980984728843529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9973599268111412</v>
+        <v>0.9883588029126752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002225484425310449</v>
+        <v>0.03358533908409031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3195247527572543</v>
+        <v>1.215660823797248</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009321884659234973</v>
+        <v>0.1637333157946316</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004268747075595622</v>
+        <v>0.0178669352273839</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00679530854402877</v>
+        <v>0.09080012939511992</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4470242476381948</v>
+        <v>0.6689602968944675</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04717504027884289</v>
+        <v>0.1832630325081693</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000245953715453</v>
+        <v>1.002114727929774</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04918337940930913</v>
+        <v>0.1910649192088178</v>
       </c>
       <c r="P2" t="n">
-        <v>366.2155613356414</v>
+        <v>168.7873312880372</v>
       </c>
       <c r="Q2" t="n">
-        <v>581.9565823373129</v>
+        <v>267.5162731023614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_23</t>
+          <t>model_14_9_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9984489733134022</v>
+        <v>0.9948674880803363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7748515262753106</v>
+        <v>0.8182035952361479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9943363496292715</v>
+        <v>0.9605225356312327</v>
       </c>
       <c r="E3" t="n">
-        <v>0.99739660202285</v>
+        <v>0.998047854152175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9974036360153024</v>
+        <v>0.9878530195400621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002201457232590432</v>
+        <v>0.03432113083983555</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3195655756092365</v>
+        <v>1.215673395751351</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009167634811751124</v>
+        <v>0.1711478389447004</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004197974580997943</v>
+        <v>0.01834255379820218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006682805023390517</v>
+        <v>0.09474518722161961</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4443510741261426</v>
+        <v>0.6821284909337804</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04691968917832291</v>
+        <v>0.185259630896306</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00024329830378</v>
+        <v>1.002161057650385</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04891715748379036</v>
+        <v>0.193146516923866</v>
       </c>
       <c r="P3" t="n">
-        <v>366.2372715188869</v>
+        <v>168.7439881100531</v>
       </c>
       <c r="Q3" t="n">
-        <v>581.9782925205584</v>
+        <v>267.4729299243774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_22</t>
+          <t>model_14_9_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.99846650882794</v>
+        <v>0.9950831053775168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7748185124815873</v>
+        <v>0.8181964242458388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9944413345706092</v>
+        <v>0.9640031829214826</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974449475533859</v>
+        <v>0.998147642915727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9974517913102919</v>
+        <v>0.9888804281827398</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002176568115182003</v>
+        <v>0.03287929698076326</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3196124338971019</v>
+        <v>1.215721348196568</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008997697838259312</v>
+        <v>0.1560580840331292</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004120017499492957</v>
+        <v>0.01740492879136745</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006558857668876134</v>
+        <v>0.08673150641224833</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4413729353676162</v>
+        <v>0.6551000843493893</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0466537041957228</v>
+        <v>0.1813264927713633</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000240547634833</v>
+        <v>1.002070271419993</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04863984896981615</v>
+        <v>0.1890459369662261</v>
       </c>
       <c r="P4" t="n">
-        <v>366.2600118034397</v>
+        <v>168.8298241807728</v>
       </c>
       <c r="Q4" t="n">
-        <v>582.0010328051111</v>
+        <v>267.558765995097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_21</t>
+          <t>model_14_9_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9984844186601447</v>
+        <v>0.9947544799948469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7747804416679903</v>
+        <v>0.8181926122070435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9945568902783244</v>
+        <v>0.9588739601108416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.997498174823745</v>
+        <v>0.9979962134499977</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9975047994386127</v>
+        <v>0.9873637599014267</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002151147708181769</v>
+        <v>0.03507681642785784</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3196664698905944</v>
+        <v>1.215746839317545</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008810650181818341</v>
+        <v>0.178294957995115</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004034188621255697</v>
+        <v>0.01882777489934016</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006422419562235259</v>
+        <v>0.09856136163758911</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4380611519777795</v>
+        <v>0.6946251219426821</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04638046688188648</v>
+        <v>0.1872880573551283</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000237738249389</v>
+        <v>1.00220864000217</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0483549793778506</v>
+        <v>0.195261297696462</v>
       </c>
       <c r="P5" t="n">
-        <v>366.2835075230273</v>
+        <v>168.7004297347356</v>
       </c>
       <c r="Q5" t="n">
-        <v>582.0245285246987</v>
+        <v>267.4293715490598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_20</t>
+          <t>model_14_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9985023802359748</v>
+        <v>0.9951825079865487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7747364059586217</v>
+        <v>0.8181743924277901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9946839724953103</v>
+        <v>0.965831274039453</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9975566995940224</v>
+        <v>0.9981948463046865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.997563094299485</v>
+        <v>0.9894169032527622</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002125653858616437</v>
+        <v>0.03221459127645954</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3197289721877629</v>
+        <v>1.215868675065307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008604944800989065</v>
+        <v>0.14813270561186</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003939817533877029</v>
+        <v>0.0169614011203125</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006272373886293457</v>
+        <v>0.08254705653051511</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4343694791204037</v>
+        <v>0.6405324212770942</v>
       </c>
       <c r="M6" t="n">
-        <v>0.046104813833443</v>
+        <v>0.179484236846748</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000234920747298</v>
+        <v>1.002028417689874</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04806759120845441</v>
+        <v>0.1871252523929045</v>
       </c>
       <c r="P6" t="n">
-        <v>366.3073516515254</v>
+        <v>168.8706715676788</v>
       </c>
       <c r="Q6" t="n">
-        <v>582.0483726531968</v>
+        <v>267.599613382003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_19</t>
+          <t>model_14_9_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9985199300205121</v>
+        <v>0.9946396911395532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7746854271940466</v>
+        <v>0.8181741007481104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9948235014137295</v>
+        <v>0.9572876248145626</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9976209646158112</v>
+        <v>0.9979439380291589</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9976270912102176</v>
+        <v>0.9868914150453901</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002100744487015084</v>
+        <v>0.0358444100317608</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3198013291439339</v>
+        <v>1.215870625528668</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008379092199571801</v>
+        <v>0.1851722451294588</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003836190301204893</v>
+        <v>0.0193189598792572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006107651652028118</v>
+        <v>0.102245602504358</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4302694005179845</v>
+        <v>0.7064871707610152</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04583387924903459</v>
+        <v>0.1893262000668708</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00023216783992</v>
+        <v>1.002256972151767</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04778512237787583</v>
+        <v>0.1973862083629804</v>
       </c>
       <c r="P7" t="n">
-        <v>366.3309269589061</v>
+        <v>168.657135301368</v>
       </c>
       <c r="Q7" t="n">
-        <v>582.0719479605776</v>
+        <v>267.3860771156922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_18</t>
+          <t>model_14_9_10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9985364667320392</v>
+        <v>0.9945242171685721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.774626195027891</v>
+        <v>0.8181494293577474</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9949764575782475</v>
+        <v>0.9557640493523151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9976914804168564</v>
+        <v>0.9978914565125441</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9976972791833598</v>
+        <v>0.9864363882222745</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002077273025492702</v>
+        <v>0.03661658500741983</v>
       </c>
       <c r="H8" t="n">
-        <v>0.319885400605574</v>
+        <v>1.216035603229627</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008131505190007512</v>
+        <v>0.1917774476672169</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003722483698163481</v>
+        <v>0.01981208135529465</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005926994185563208</v>
+        <v>0.1057947645112558</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4256960552308435</v>
+        <v>0.7177354498037229</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04557711076288955</v>
+        <v>0.1913546053990335</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000229573845955</v>
+        <v>1.002305592771128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04751742272569155</v>
+        <v>0.1995009671095112</v>
       </c>
       <c r="P8" t="n">
-        <v>366.3533985817542</v>
+        <v>168.6145079978671</v>
       </c>
       <c r="Q8" t="n">
-        <v>582.0944195834256</v>
+        <v>267.3434498121913</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_17</t>
+          <t>model_14_9_3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9985511645842524</v>
+        <v>0.9952737879212005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7745571459400048</v>
+        <v>0.8181370240850387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9951438476747927</v>
+        <v>0.9677141451503128</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9977686281064175</v>
+        <v>0.9982395527029703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9977740788264038</v>
+        <v>0.9899670987204217</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002056411557835204</v>
+        <v>0.03160420193313785</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3199834057625739</v>
+        <v>1.216118557345351</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0078605542704096</v>
+        <v>0.1399698378393791</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003598083186753845</v>
+        <v>0.01654133541848088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005729318881424911</v>
+        <v>0.07825558897083575</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4206105649700372</v>
+        <v>0.6252250948156355</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04534767422740889</v>
+        <v>0.1777757068137766</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000227268300509</v>
+        <v>1.001989984033179</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04727821860189637</v>
+        <v>0.1853439866992847</v>
       </c>
       <c r="P9" t="n">
-        <v>366.373585554754</v>
+        <v>168.9089303893234</v>
       </c>
       <c r="Q9" t="n">
-        <v>582.1146065564255</v>
+        <v>267.6378722036476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_16</t>
+          <t>model_14_9_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.998562977908351</v>
+        <v>0.994408908522402</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7744765123694233</v>
+        <v>0.8181197314541721</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9953267443128048</v>
+        <v>0.9543029217234866</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9978529258892457</v>
+        <v>0.9978390219794671</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9978579942726844</v>
+        <v>0.9859987445427623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002039644259114637</v>
+        <v>0.03738765445530624</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3200978534111412</v>
+        <v>1.216234193247582</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007564503229854949</v>
+        <v>0.1981119182340306</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003462153162741709</v>
+        <v>0.02030476136940314</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00551332814620858</v>
+        <v>0.1092083398017169</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4149410189126539</v>
+        <v>0.7283985463798937</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04516242087305149</v>
+        <v>0.1933588747777206</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000225415230062</v>
+        <v>1.002354143780041</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04708507862871668</v>
+        <v>0.2015905623850585</v>
       </c>
       <c r="P10" t="n">
-        <v>366.3899597382388</v>
+        <v>168.5728294476657</v>
       </c>
       <c r="Q10" t="n">
-        <v>582.1309807399102</v>
+        <v>267.3017712619899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_15</t>
+          <t>model_14_9_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9985705136512782</v>
+        <v>0.9942945455534624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7743819755043694</v>
+        <v>0.8180860914397693</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9955260325591047</v>
+        <v>0.9529040030972519</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9979448132788253</v>
+        <v>0.9977869581842502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9979494423266165</v>
+        <v>0.9855786126378523</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002028948365927606</v>
+        <v>0.03815240015519883</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3202320347679919</v>
+        <v>1.216459144178791</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007241919428814919</v>
+        <v>0.2041766922403617</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003313984911419602</v>
+        <v>0.02079395789422568</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005277949163215989</v>
+        <v>0.1124853250672937</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4086244414845367</v>
+        <v>0.7384967651140044</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04504384936844991</v>
+        <v>0.1953263939031252</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000224233152741</v>
+        <v>1.002402296609068</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04696145928968736</v>
+        <v>0.2036418428729577</v>
       </c>
       <c r="P11" t="n">
-        <v>366.4004753330038</v>
+        <v>168.5323332191901</v>
       </c>
       <c r="Q11" t="n">
-        <v>582.1414963346753</v>
+        <v>267.2612750335143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_14</t>
+          <t>model_14_9_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9985719548383583</v>
+        <v>0.9953546595776285</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7742708874746854</v>
+        <v>0.8180815765095798</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9957426348506231</v>
+        <v>0.9696480140160038</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9980447140517809</v>
+        <v>0.9982811748666987</v>
       </c>
       <c r="F12" t="n">
-        <v>0.998048843613675</v>
+        <v>0.9905296094396766</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002026902810072225</v>
+        <v>0.0310634127942245</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3203897081004465</v>
+        <v>1.216489335537757</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006891309737529547</v>
+        <v>0.1315858779661281</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003152895093738899</v>
+        <v>0.01615024948694695</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005022099280687664</v>
+        <v>0.07386806372653754</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4015835842601838</v>
+        <v>0.6092603427566345</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04502113736982025</v>
+        <v>0.1762481568534108</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000224007084179</v>
+        <v>1.00195593280942</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0469377803942557</v>
+        <v>0.1837514057746418</v>
       </c>
       <c r="P12" t="n">
-        <v>366.4024927206643</v>
+        <v>168.9434491796549</v>
       </c>
       <c r="Q12" t="n">
-        <v>582.1435137223358</v>
+        <v>267.6723909939792</v>
       </c>
     </row>
     <row r="13">
@@ -1127,767 +1127,767 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9985650122505397</v>
+        <v>0.9941817269133736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7741400002388245</v>
+        <v>0.8180493293226742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.995977306408524</v>
+        <v>0.9515663094649789</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9981529593778501</v>
+        <v>0.9977354542872853</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9981565391721557</v>
+        <v>0.9851758329776895</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002036756805685472</v>
+        <v>0.03890681892095524</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3205754835319912</v>
+        <v>1.21670497262508</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006511451694974565</v>
+        <v>0.2099760356884362</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002978349699089877</v>
+        <v>0.02127789356017425</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004744900697032221</v>
+        <v>0.1156269646243052</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3937352684025348</v>
+        <v>0.7480558878586721</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04513044211710619</v>
+        <v>0.1972481151264955</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000225096117562</v>
+        <v>1.002449799194369</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04705173847092562</v>
+        <v>0.2056453757473182</v>
       </c>
       <c r="P13" t="n">
-        <v>366.3927930746708</v>
+        <v>168.4931715002441</v>
       </c>
       <c r="Q13" t="n">
-        <v>582.1338140763422</v>
+        <v>267.2221133145683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_12</t>
+          <t>model_14_9_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9985467264311342</v>
+        <v>0.9940709134390658</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7739853310096128</v>
+        <v>0.8180102945006135</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9962306014586028</v>
+        <v>0.9502883117016665</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9982698319213876</v>
+        <v>0.9976847302821408</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9982727919891695</v>
+        <v>0.9847901140246861</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00206271087193851</v>
+        <v>0.03964782913389969</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3207950140508722</v>
+        <v>1.216965998659938</v>
       </c>
       <c r="I14" t="n">
-        <v>0.006101448187210786</v>
+        <v>0.2155165778398752</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002789892931705994</v>
+        <v>0.02175450128610888</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004445676507318441</v>
+        <v>0.1186355324356853</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3849815624463832</v>
+        <v>0.7571023790457673</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04541707687575798</v>
+        <v>0.1991176263767216</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000227964481391</v>
+        <v>1.002496457499341</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04735057586466897</v>
+        <v>0.2075944759618882</v>
       </c>
       <c r="P14" t="n">
-        <v>366.3674684080836</v>
+        <v>168.4554381662429</v>
       </c>
       <c r="Q14" t="n">
-        <v>582.1084894097551</v>
+        <v>267.1843799805672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_11</t>
+          <t>model_14_9_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9985133343328565</v>
+        <v>0.995422448965252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7738020753616806</v>
+        <v>0.8180050542370392</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9965028037539193</v>
+        <v>0.9716275356758164</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9983954707772822</v>
+        <v>0.9983190502637749</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9983977428441632</v>
+        <v>0.9911025504426261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002110106108203736</v>
+        <v>0.03061010484704423</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3210551188414856</v>
+        <v>1.217001040326589</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005660839908973868</v>
+        <v>0.1230039981610719</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002587300501328344</v>
+        <v>0.01579436854225594</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004124064358039719</v>
+        <v>0.06939918335166391</v>
       </c>
       <c r="L15" t="n">
-        <v>0.375212420312055</v>
+        <v>0.5925335672782107</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04593589128561387</v>
+        <v>0.1749574372441601</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000233202457591</v>
+        <v>1.001927389909367</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04789147727804632</v>
+        <v>0.1824057375594674</v>
       </c>
       <c r="P15" t="n">
-        <v>366.3220340890207</v>
+        <v>168.9728502015521</v>
       </c>
       <c r="Q15" t="n">
-        <v>582.0630550906922</v>
+        <v>267.7017920158763</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_10</t>
+          <t>model_14_9_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9984600841129343</v>
+        <v>0.9939625846108852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7735843085424057</v>
+        <v>0.8179695909837569</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9967938032600241</v>
+        <v>0.9490692520819991</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9985298265415837</v>
+        <v>0.9976350395980188</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9985313279644893</v>
+        <v>0.9844213951044734</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002185687065512565</v>
+        <v>0.04037222450675285</v>
       </c>
       <c r="H16" t="n">
-        <v>0.321364207230134</v>
+        <v>1.217238183264581</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00518980497077276</v>
+        <v>0.2208016036840344</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002370652071737998</v>
+        <v>0.02222139982639573</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003780228394196897</v>
+        <v>0.1215115017552151</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3643045953458575</v>
+        <v>0.7656548569874557</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04675133223248899</v>
+        <v>0.2009284064206772</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000241555433265</v>
+        <v>1.002542069637522</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04874163323422537</v>
+        <v>0.2094823446611465</v>
       </c>
       <c r="P16" t="n">
-        <v>366.2516501068073</v>
+        <v>168.419226485338</v>
       </c>
       <c r="Q16" t="n">
-        <v>581.9926711084788</v>
+        <v>267.1481682996622</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_9</t>
+          <t>model_14_9_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9983809189017396</v>
+        <v>0.993857047552219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7733248520400848</v>
+        <v>0.8179277671262971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9971028634075862</v>
+        <v>0.9479075004824326</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9986725501228561</v>
+        <v>0.9975864474566987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9986732153091735</v>
+        <v>0.9840692652160986</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002298050591079235</v>
+        <v>0.04107795130400642</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3217324680721376</v>
+        <v>1.217517859591996</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00468953564229177</v>
+        <v>0.2258381803445576</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002140510552251266</v>
+        <v>0.0226779763508018</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003415023259092455</v>
+        <v>0.1242580783476797</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3521252984155967</v>
+        <v>0.7737453445228226</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04793798693186057</v>
+        <v>0.2026769629336458</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00025397350561</v>
+        <v>1.002586506293802</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04997880628086307</v>
+        <v>0.211305340844883</v>
       </c>
       <c r="P17" t="n">
-        <v>366.1513881690656</v>
+        <v>168.3845675321026</v>
       </c>
       <c r="Q17" t="n">
-        <v>581.8924091707371</v>
+        <v>267.1135093464268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_8</t>
+          <t>model_14_9_0</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9982682269196129</v>
+        <v>0.9954741390256076</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7730149912509108</v>
+        <v>0.8179038436326684</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9974285716588852</v>
+        <v>0.9736463099232248</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9988229999242761</v>
+        <v>0.9983525441871001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9988227597754544</v>
+        <v>0.9916837610534621</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002458000501194574</v>
+        <v>0.03026445317543609</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3221722704825783</v>
+        <v>1.217677836104048</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004162318369397432</v>
+        <v>0.1142519454321105</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001897910516597383</v>
+        <v>0.01547965635454204</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00303010938862886</v>
+        <v>0.06486580089332625</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3385133261433669</v>
+        <v>0.5750163781812143</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04957822607954598</v>
+        <v>0.173966816305398</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000271650679276</v>
+        <v>1.001905625673428</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05168887380482857</v>
+        <v>0.1813729438364741</v>
       </c>
       <c r="P18" t="n">
-        <v>366.0168141278698</v>
+        <v>168.995562835375</v>
       </c>
       <c r="Q18" t="n">
-        <v>581.7578351295413</v>
+        <v>267.7245046496993</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_7</t>
+          <t>model_14_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9981124142656811</v>
+        <v>0.9937544954398093</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7726438602367558</v>
+        <v>0.8178853033701401</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9977683809693192</v>
+        <v>0.9468009989908019</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9989800096949198</v>
+        <v>0.9975390391749581</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9989787890124103</v>
+        <v>0.9837332029206816</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002679153945484949</v>
+        <v>0.04176371775189921</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3226990370833143</v>
+        <v>1.217801814924945</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003612276000999758</v>
+        <v>0.2306352295499643</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001644732542305455</v>
+        <v>0.0231234292145192</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002628504307573246</v>
+        <v>0.1268793293822418</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3232964687122324</v>
+        <v>0.781385771345843</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05176054429278105</v>
+        <v>0.2043617326015299</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000296091879893</v>
+        <v>1.002629686130607</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05396409782242253</v>
+        <v>0.213061834645483</v>
       </c>
       <c r="P19" t="n">
-        <v>365.8445084525676</v>
+        <v>168.3514546254889</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.5855294542391</v>
+        <v>267.0803964398131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_6</t>
+          <t>model_14_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9979014074876565</v>
+        <v>0.9936552202334396</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7721983594772649</v>
+        <v>0.8178425562374801</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9981184626205238</v>
+        <v>0.9457488229376788</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9991418179388237</v>
+        <v>0.997492977450819</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9991395524689388</v>
+        <v>0.9834130481722951</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00297864743687463</v>
+        <v>0.04242757151401416</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3233313607419466</v>
+        <v>1.218087665197875</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003045606005068</v>
+        <v>0.2351967600474464</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001383817038465307</v>
+        <v>0.0235562296909792</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002214713775429761</v>
+        <v>0.1293765032005253</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3062728783231869</v>
+        <v>0.7886069275920395</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05457698633008817</v>
+        <v>0.2059795414938439</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000329190982328</v>
+        <v>1.002671486217499</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05690044162809656</v>
+        <v>0.2147485170116689</v>
       </c>
       <c r="P20" t="n">
-        <v>365.6325719234861</v>
+        <v>168.3199137130445</v>
       </c>
       <c r="Q20" t="n">
-        <v>581.3735929251576</v>
+        <v>267.0488555273687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_5</t>
+          <t>model_14_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9976200627455266</v>
+        <v>0.9935592530516578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7716623268433341</v>
+        <v>0.8177999308839474</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9984731839659113</v>
+        <v>0.9447481368908967</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9993057771624971</v>
+        <v>0.997448350629664</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999302451982734</v>
+        <v>0.9831080693942446</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003377975457962197</v>
+        <v>0.04306930450047693</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3240921812546226</v>
+        <v>1.21837270113322</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002471425831225998</v>
+        <v>0.2395350643713781</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001119433083594765</v>
+        <v>0.0239755476783068</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001795425225937166</v>
+        <v>0.1317553060248425</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2872103690887928</v>
+        <v>0.7954297300720019</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05812035321608255</v>
+        <v>0.2075314542436325</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000373323490898</v>
+        <v>1.002711893451933</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06059465697820837</v>
+        <v>0.2163664979001183</v>
       </c>
       <c r="P21" t="n">
-        <v>365.3809574517596</v>
+        <v>168.2898894563328</v>
       </c>
       <c r="Q21" t="n">
-        <v>581.1219784534311</v>
+        <v>267.018831270657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_4</t>
+          <t>model_14_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9972493715703535</v>
+        <v>0.9934667763800592</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7710159545717378</v>
+        <v>0.8177576205738297</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9988246122030831</v>
+        <v>0.9437979902842794</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994682042054811</v>
+        <v>0.997405171194679</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9994638333284862</v>
+        <v>0.98281800672969</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003904117771111176</v>
+        <v>0.04368769642927266</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3250096128659206</v>
+        <v>1.218655630371798</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001902576144179905</v>
+        <v>0.2436542635399</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0008575197673449212</v>
+        <v>0.02438126588326064</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001380044303065572</v>
+        <v>0.1340177647115803</v>
       </c>
       <c r="L22" t="n">
-        <v>0.265857779452193</v>
+        <v>0.8018677146437956</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06248293984049707</v>
+        <v>0.2090160195517862</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000431471126219</v>
+        <v>1.00275083099787</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0651429679470235</v>
+        <v>0.2179142642269139</v>
       </c>
       <c r="P22" t="n">
-        <v>365.0914468882115</v>
+        <v>168.2613775255261</v>
       </c>
       <c r="Q22" t="n">
-        <v>580.832467889883</v>
+        <v>266.9903193398504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_3</t>
+          <t>model_14_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9967655611299437</v>
+        <v>0.9933777958460566</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7702347305263497</v>
+        <v>0.8177159677376891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9991617743974479</v>
+        <v>0.9428960725714739</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9996239219823529</v>
+        <v>0.9973634704419507</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9996186255310544</v>
+        <v>0.9825422379743679</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00459081646072499</v>
+        <v>0.04428270966986586</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3261184469948585</v>
+        <v>1.218934163078864</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001356818608326118</v>
+        <v>0.2475643745341294</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0006064251306988034</v>
+        <v>0.02477309024474231</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0009816232361424264</v>
+        <v>0.1361687323894359</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2419128659167971</v>
+        <v>0.8079489680752215</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06775556405731555</v>
+        <v>0.2104345733710739</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000507362960009</v>
+        <v>1.002788296485871</v>
       </c>
       <c r="O23" t="n">
-        <v>0.07064005869258873</v>
+        <v>0.2193932088190998</v>
       </c>
       <c r="P23" t="n">
-        <v>364.7673947851491</v>
+        <v>168.2343219580485</v>
       </c>
       <c r="Q23" t="n">
-        <v>580.5084157868206</v>
+        <v>266.9632637723727</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_2</t>
+          <t>model_14_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9961388842024809</v>
+        <v>0.9932923629441494</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7692887600891964</v>
+        <v>0.8176750334109906</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9994697439155472</v>
+        <v>0.9420406580896628</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997659493831932</v>
+        <v>0.9973232985758358</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997599525386944</v>
+        <v>0.9822803137894245</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005480293390027226</v>
+        <v>0.04485399987830194</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3274611147121083</v>
+        <v>1.219207891109982</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0008583146594106034</v>
+        <v>0.2512728786719936</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003774062009133953</v>
+        <v>0.02515054903769552</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006178603576847065</v>
+        <v>0.1382117138548446</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2150404511652036</v>
+        <v>0.8136848356230457</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07402900370819011</v>
+        <v>0.2117876291908995</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00060566522314</v>
+        <v>1.002824268234042</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07718057165721139</v>
+        <v>0.2208038670263871</v>
       </c>
       <c r="P24" t="n">
-        <v>364.4131932822584</v>
+        <v>168.2086850219825</v>
       </c>
       <c r="Q24" t="n">
-        <v>580.1542142839298</v>
+        <v>266.9376268363067</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_1</t>
+          <t>model_14_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9953320459020437</v>
+        <v>0.9932104418464426</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7681409289205789</v>
+        <v>0.817635058224838</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997286080005007</v>
+        <v>0.9412295147637859</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998848670859611</v>
+        <v>0.9972847043111288</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998785994341659</v>
+        <v>0.9820316418597023</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006625483235808873</v>
+        <v>0.04540180663587916</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3290902944353073</v>
+        <v>1.219475205363854</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004392966689998443</v>
+        <v>0.2547894527356528</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001856516179291405</v>
+        <v>0.02551318453313153</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003124740275168864</v>
+        <v>0.1401513291045768</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1848568802686938</v>
+        <v>0.8190925115389563</v>
       </c>
       <c r="M25" t="n">
-        <v>0.08139707142034579</v>
+        <v>0.213076996965602</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000732228093797</v>
+        <v>1.002858761327814</v>
       </c>
       <c r="O25" t="n">
-        <v>0.08486231326587634</v>
+        <v>0.222148125856618</v>
       </c>
       <c r="P25" t="n">
-        <v>364.0336639370315</v>
+        <v>168.1844067619695</v>
       </c>
       <c r="Q25" t="n">
-        <v>579.774684938703</v>
+        <v>266.9133485762937</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_0</t>
+          <t>model_14_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9942985570677596</v>
+        <v>0.9931320431622467</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7667456310716407</v>
+        <v>0.8175961191445205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999119019915912</v>
+        <v>0.9404613297728425</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999681442904661</v>
+        <v>0.9972475983158665</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999962320017791</v>
+        <v>0.9817958063141813</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008092370613502563</v>
+        <v>0.04592605899808998</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3310707171886391</v>
+        <v>1.219735591173235</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00014260244115862</v>
+        <v>0.258119788237488</v>
       </c>
       <c r="J26" t="n">
-        <v>5.136727463755036e-05</v>
+        <v>0.0258618361029374</v>
       </c>
       <c r="K26" t="n">
-        <v>9.698485107328287e-05</v>
+        <v>0.1419908218894372</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1509263925154861</v>
+        <v>0.8241957487743166</v>
       </c>
       <c r="M26" t="n">
-        <v>0.08995760453403905</v>
+        <v>0.2143036607202266</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000894343989371</v>
+        <v>1.002891771300107</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09378728599696602</v>
+        <v>0.223427011226821</v>
       </c>
       <c r="P26" t="n">
-        <v>363.633667121475</v>
+        <v>168.161445177705</v>
       </c>
       <c r="Q26" t="n">
-        <v>579.3746881231464</v>
+        <v>266.8903869920293</v>
       </c>
     </row>
   </sheetData>
